--- a/Backend/companyNo.xlsx
+++ b/Backend/companyNo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d521e9a9e061006c/المستندات/GitHub/MyMidForm/Backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d521e9a9e061006c/المستندات/GitHub/medicalFormProject/Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="44" documentId="11_B80ED65AE44F315F5D695403726950A42DA25B00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEEC73E4-DDB0-4B62-9956-44A5FCC0EB38}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4510" yWindow="0" windowWidth="8070" windowHeight="10800" tabRatio="655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5190" yWindow="0" windowWidth="8070" windowHeight="10800" tabRatio="655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="المستودعات" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2032"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="CJ2000" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2004" sqref="A2004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22825,21 +22825,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22975,14 +22975,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4626E69C-D21E-4DF0-90DD-564CCCB2157B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84ADA1C6-36B8-4B5D-BCEC-7F437387346F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -22994,6 +22986,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4626E69C-D21E-4DF0-90DD-564CCCB2157B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
